--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Angptl3</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angptl3</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H2">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I2">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J2">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>0.144620452494</v>
+        <v>8.240190457115556</v>
       </c>
       <c r="R2">
-        <v>1.301584072446</v>
+        <v>74.16171411404</v>
       </c>
       <c r="S2">
-        <v>0.003052459304806501</v>
+        <v>0.2071856721861724</v>
       </c>
       <c r="T2">
-        <v>0.0034481800851789</v>
+        <v>0.2218517811919713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H3">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I3">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J3">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>0.093505984012</v>
+        <v>3.784482397149334</v>
       </c>
       <c r="R3">
-        <v>0.8415538561079999</v>
+        <v>34.060341574344</v>
       </c>
       <c r="S3">
-        <v>0.001973601976970435</v>
+        <v>0.09515441826384551</v>
       </c>
       <c r="T3">
-        <v>0.002229459708879086</v>
+        <v>0.1018901401693011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H4">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I4">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J4">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>0.005500577401666666</v>
+        <v>0.3062959043828889</v>
       </c>
       <c r="R4">
-        <v>0.04950519661499999</v>
+        <v>2.756663139446</v>
       </c>
       <c r="S4">
-        <v>0.0001160989914080263</v>
+        <v>0.007701293212542369</v>
       </c>
       <c r="T4">
-        <v>0.0001311500629843417</v>
+        <v>0.008246446767558825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H5">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I5">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J5">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>0.022951922665</v>
+        <v>0.5114716324636668</v>
       </c>
       <c r="R5">
-        <v>0.13771153599</v>
+        <v>3.068829794782</v>
       </c>
       <c r="S5">
-        <v>0.0004844391556919316</v>
+        <v>0.01286009037383803</v>
       </c>
       <c r="T5">
-        <v>0.0003648278939121821</v>
+        <v>0.009180280745675045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H6">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I6">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J6">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>0.01081186914266666</v>
+        <v>0.1742353115168889</v>
       </c>
       <c r="R6">
-        <v>0.09730682228399999</v>
+        <v>1.568117803652</v>
       </c>
       <c r="S6">
-        <v>0.0002282027887324745</v>
+        <v>0.004380852642067464</v>
       </c>
       <c r="T6">
-        <v>0.000257786994981572</v>
+        <v>0.004690961259661299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,14 +835,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H7">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I7">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J7">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>5.853246319092001</v>
+        <v>6.242673012379999</v>
       </c>
       <c r="R7">
-        <v>52.679216871828</v>
+        <v>56.18405711141999</v>
       </c>
       <c r="S7">
-        <v>0.1235426655215177</v>
+        <v>0.1569614696455905</v>
       </c>
       <c r="T7">
-        <v>0.1395587349028457</v>
+        <v>0.1680723442502016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H8">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I8">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J8">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
-        <v>3.784482397149334</v>
+        <v>2.867080105668</v>
       </c>
       <c r="R8">
-        <v>34.060341574344</v>
+        <v>25.803720951012</v>
       </c>
       <c r="S8">
-        <v>0.07987790321382214</v>
+        <v>0.07208788704531476</v>
       </c>
       <c r="T8">
-        <v>0.09023327343759925</v>
+        <v>0.07719079207850783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H9">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I9">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J9">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>0.2226257342855556</v>
+        <v>0.232046235587</v>
       </c>
       <c r="R9">
-        <v>2.00363160857</v>
+        <v>2.088416120283</v>
       </c>
       <c r="S9">
-        <v>0.004698892738822796</v>
+        <v>0.005834410690938392</v>
       </c>
       <c r="T9">
-        <v>0.005308057125900849</v>
+        <v>0.006247412720832676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H10">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I10">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J10">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>0.9289367758033334</v>
+        <v>0.3874849948185</v>
       </c>
       <c r="R10">
-        <v>5.573620654820001</v>
+        <v>2.324909968911</v>
       </c>
       <c r="S10">
-        <v>0.01960678213889198</v>
+        <v>0.00974265577128767</v>
       </c>
       <c r="T10">
-        <v>0.01476573672891918</v>
+        <v>0.006954874545115585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H11">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I11">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J11">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>0.4375904802568889</v>
+        <v>0.131998657394</v>
       </c>
       <c r="R11">
-        <v>3.938314322312</v>
+        <v>1.187987916546</v>
       </c>
       <c r="S11">
-        <v>0.009236087359153454</v>
+        <v>0.003318883307634287</v>
       </c>
       <c r="T11">
-        <v>0.0104334535915539</v>
+        <v>0.003553818010665067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H12">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I12">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J12">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>6.364156573698</v>
+        <v>4.057124272389999</v>
       </c>
       <c r="R12">
-        <v>57.277409163282</v>
+        <v>24.34274563433999</v>
       </c>
       <c r="S12">
-        <v>0.1343262907536254</v>
+        <v>0.1020095377518978</v>
       </c>
       <c r="T12">
-        <v>0.1517403491549459</v>
+        <v>0.07282034325389217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H13">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I13">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J13">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>4.114817182270667</v>
+        <v>1.863320450154</v>
       </c>
       <c r="R13">
-        <v>37.033354640436</v>
+        <v>11.179922700924</v>
       </c>
       <c r="S13">
-        <v>0.08685017768230856</v>
+        <v>0.04685004575713826</v>
       </c>
       <c r="T13">
-        <v>0.09810943346789987</v>
+        <v>0.03344428853106818</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H14">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I14">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J14">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.2420579885227777</v>
+        <v>0.1508072604235</v>
       </c>
       <c r="R14">
-        <v>2.178521896705</v>
+        <v>0.904843562541</v>
       </c>
       <c r="S14">
-        <v>0.005109043338111201</v>
+        <v>0.003791793864960643</v>
       </c>
       <c r="T14">
-        <v>0.005771379642981916</v>
+        <v>0.00270680307821804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H15">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I15">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J15">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>1.010020553721667</v>
+        <v>0.25182718597425</v>
       </c>
       <c r="R15">
-        <v>6.06012332233</v>
+        <v>1.007308743897</v>
       </c>
       <c r="S15">
-        <v>0.02131819244156648</v>
+        <v>0.00633176928037788</v>
       </c>
       <c r="T15">
-        <v>0.01605458840205149</v>
+        <v>0.003013323541850143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H16">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I16">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J16">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.4757862867364444</v>
+        <v>0.085786161757</v>
       </c>
       <c r="R16">
-        <v>4.282076580628</v>
+        <v>0.5147169705419999</v>
       </c>
       <c r="S16">
-        <v>0.01004227447088265</v>
+        <v>0.002156948153127684</v>
       </c>
       <c r="T16">
-        <v>0.0113441547888525</v>
+        <v>0.001539755089113562</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H17">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I17">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J17">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>6.643691269380001</v>
+        <v>6.637633490351111</v>
       </c>
       <c r="R17">
-        <v>39.86214761628001</v>
+        <v>59.73870141315999</v>
       </c>
       <c r="S17">
-        <v>0.1402263433958074</v>
+        <v>0.1668920838154068</v>
       </c>
       <c r="T17">
-        <v>0.1056035230245343</v>
+        <v>0.1787059195291152</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H18">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I18">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J18">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>4.295553491240001</v>
+        <v>3.048474089730667</v>
       </c>
       <c r="R18">
-        <v>25.77332094744</v>
+        <v>27.436266807576</v>
       </c>
       <c r="S18">
-        <v>0.09066492323534651</v>
+        <v>0.07664873241826346</v>
       </c>
       <c r="T18">
-        <v>0.06827914838637814</v>
+        <v>0.0820744872638613</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H19">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I19">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J19">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>0.2526899717833333</v>
+        <v>0.2467273012037778</v>
       </c>
       <c r="R19">
-        <v>1.5161398307</v>
+        <v>2.220545710834</v>
       </c>
       <c r="S19">
-        <v>0.005333449330988151</v>
+        <v>0.006203541291019952</v>
       </c>
       <c r="T19">
-        <v>0.004016585083698574</v>
+        <v>0.006642673069950684</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H20">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I20">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J20">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>1.05438397955</v>
+        <v>0.4120003359963334</v>
       </c>
       <c r="R20">
-        <v>4.2175359182</v>
+        <v>2.472002015978</v>
       </c>
       <c r="S20">
-        <v>0.02225455759343466</v>
+        <v>0.01035905262124358</v>
       </c>
       <c r="T20">
-        <v>0.01117317249767383</v>
+        <v>0.007394894480345339</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,371 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9888486666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.966546</v>
+      </c>
+      <c r="I21">
+        <v>0.2636322720532663</v>
+      </c>
+      <c r="J21">
+        <v>0.2785966347663675</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.39337</v>
-      </c>
-      <c r="H21">
-        <v>2.78674</v>
-      </c>
-      <c r="I21">
-        <v>0.268962637761708</v>
-      </c>
-      <c r="J21">
-        <v>0.1969673805863079</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>0.4966843858533333</v>
+        <v>0.1403499281897778</v>
       </c>
       <c r="R21">
-        <v>2.98010631512</v>
+        <v>1.263149353708</v>
       </c>
       <c r="S21">
-        <v>0.01048336420613129</v>
+        <v>0.003528861907332533</v>
       </c>
       <c r="T21">
-        <v>0.007894951594023125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H22">
-        <v>3.583493</v>
-      </c>
-      <c r="I22">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J22">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.768074</v>
-      </c>
-      <c r="N22">
-        <v>14.304222</v>
-      </c>
-      <c r="O22">
-        <v>0.5213599352042467</v>
-      </c>
-      <c r="P22">
-        <v>0.5361472681932758</v>
-      </c>
-      <c r="Q22">
-        <v>5.695453267494001</v>
-      </c>
-      <c r="R22">
-        <v>51.259079407446</v>
-      </c>
-      <c r="S22">
-        <v>0.1202121762284897</v>
-      </c>
-      <c r="T22">
-        <v>0.1357964810257711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H23">
-        <v>3.583493</v>
-      </c>
-      <c r="I23">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J23">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.082852</v>
-      </c>
-      <c r="N23">
-        <v>9.248556000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.3370911439219028</v>
-      </c>
-      <c r="P23">
-        <v>0.3466520607784562</v>
-      </c>
-      <c r="Q23">
-        <v>3.682459520678667</v>
-      </c>
-      <c r="R23">
-        <v>33.142135686108</v>
-      </c>
-      <c r="S23">
-        <v>0.07772453781345506</v>
-      </c>
-      <c r="T23">
-        <v>0.08780074577769985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H24">
-        <v>3.583493</v>
-      </c>
-      <c r="I24">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J24">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.1813516666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.544055</v>
-      </c>
-      <c r="O24">
-        <v>0.01982970339439268</v>
-      </c>
-      <c r="P24">
-        <v>0.02039213331538707</v>
-      </c>
-      <c r="Q24">
-        <v>0.2166241426794444</v>
-      </c>
-      <c r="R24">
-        <v>1.949617284115</v>
-      </c>
-      <c r="S24">
-        <v>0.004572218995062503</v>
-      </c>
-      <c r="T24">
-        <v>0.005164961399821387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H25">
-        <v>3.583493</v>
-      </c>
-      <c r="I25">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J25">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.756715</v>
-      </c>
-      <c r="N25">
-        <v>1.51343</v>
-      </c>
-      <c r="O25">
-        <v>0.08274218969086503</v>
-      </c>
-      <c r="P25">
-        <v>0.05672600439938288</v>
-      </c>
-      <c r="Q25">
-        <v>0.9038943018316667</v>
-      </c>
-      <c r="R25">
-        <v>5.42336581099</v>
-      </c>
-      <c r="S25">
-        <v>0.01907821836127996</v>
-      </c>
-      <c r="T25">
-        <v>0.01436767887682621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H26">
-        <v>3.583493</v>
-      </c>
-      <c r="I26">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J26">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.3564626666666666</v>
-      </c>
-      <c r="N26">
-        <v>1.069388</v>
-      </c>
-      <c r="O26">
-        <v>0.0389770277885927</v>
-      </c>
-      <c r="P26">
-        <v>0.04008253331349799</v>
-      </c>
-      <c r="Q26">
-        <v>0.4257938235871111</v>
-      </c>
-      <c r="R26">
-        <v>3.832144412284</v>
-      </c>
-      <c r="S26">
-        <v>0.008987098963692826</v>
-      </c>
-      <c r="T26">
-        <v>0.01015218634408689</v>
+        <v>0.003778660423094979</v>
       </c>
     </row>
   </sheetData>
